--- a/Threshold/Zn/3His/4.xlsx
+++ b/Threshold/Zn/3His/4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Metal_installer_geometric_parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Threshold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80D96891-1986-4764-8F56-1BB1241FE3F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A93ED68D-C259-454C-BE8B-F2F4CE8A365C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="9930" xr2:uid="{444FD90F-5675-4CD1-B932-DF78084F93BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26025" windowHeight="9690" xr2:uid="{444FD90F-5675-4CD1-B932-DF78084F93BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Parameter</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>ratio_threshold_range</t>
-  </si>
-  <si>
-    <t>theta_threshold_range</t>
   </si>
   <si>
     <t>pie_threshold_range</t>
@@ -427,10 +424,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF80A70-DF38-4711-9C26-F73716934B88}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -456,7 +453,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5.6</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
         <v>10.4</v>
@@ -467,7 +464,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
         <v>9.3000000000000007</v>
@@ -478,10 +475,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="C4" s="2">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -489,25 +486,15 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Threshold/Zn/3His/4.xlsx
+++ b/Threshold/Zn/3His/4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Threshold\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Metal_installer_geometric_parameters\Zn\3His\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A93ED68D-C259-454C-BE8B-F2F4CE8A365C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{518A82C0-892A-4706-928F-BDAEF3738399}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26025" windowHeight="9690" xr2:uid="{444FD90F-5675-4CD1-B932-DF78084F93BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="9930" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CF80A70-DF38-4711-9C26-F73716934B88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158707C9-0263-45BC-A1DA-0371CDFDAA23}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -432,9 +432,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="3" max="3" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" x14ac:dyDescent="0.3">
@@ -456,7 +455,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>10.4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -467,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -478,7 +477,7 @@
         <v>0.7</v>
       </c>
       <c r="C4" s="2">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">

--- a/Threshold/Zn/3His/4.xlsx
+++ b/Threshold/Zn/3His/4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Metal_installer_geometric_parameters\Zn\3His\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Zn\3His\Threshold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{518A82C0-892A-4706-928F-BDAEF3738399}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B522485C-8B16-4809-940C-A6336A8AF494}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="9930" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="8805" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,10 +452,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>4</v>
+        <v>5.8</v>
       </c>
       <c r="C2" s="2">
-        <v>11</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -463,10 +463,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>5</v>
+        <v>5.7</v>
       </c>
       <c r="C3" s="2">
-        <v>9.5</v>
+        <v>11.7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/Threshold/Zn/3His/4.xlsx
+++ b/Threshold/Zn/3His/4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\241213_Metal_installer_real_final\Final\Zn\3His\Threshold\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Metal_installer_geometric_parameters\Zn\3His\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B522485C-8B16-4809-940C-A6336A8AF494}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{518A82C0-892A-4706-928F-BDAEF3738399}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15840" windowHeight="8805" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="9930" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,10 +452,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5.8</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>12.9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -463,10 +463,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>11.7</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Threshold/Zn/3His/4.xlsx
+++ b/Threshold/Zn/3His/4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Metal_installer_geometric_parameters\Zn\3His\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\Zn_3His_threshold\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{518A82C0-892A-4706-928F-BDAEF3738399}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3303B15-36B6-47A2-AE21-4EA8FC49772D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14265" windowHeight="9930" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11520" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,7 +455,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>9.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -477,7 +477,7 @@
         <v>0.7</v>
       </c>
       <c r="C4" s="2">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Threshold/Zn/3His/4.xlsx
+++ b/Threshold/Zn/3His/4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\3His\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\3His\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF540923-6866-45DF-87D3-5DE01D11B550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49CD0915-F694-4DD4-A150-2C7C97C9B4EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14280" windowHeight="7395" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="2">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Threshold/Zn/3His/4.xlsx
+++ b/Threshold/Zn/3His/4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\3His\2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49CD0915-F694-4DD4-A150-2C7C97C9B4EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0372C972-3927-405E-9B25-56AEDEC8D4D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
@@ -427,7 +427,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -455,7 +455,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -466,7 +466,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>11</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">

--- a/Threshold/Zn/3His/4.xlsx
+++ b/Threshold/Zn/3His/4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\3His\2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wj432\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0372C972-3927-405E-9B25-56AEDEC8D4D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C415E112-A83C-4174-B9A2-7AC5B9BBEFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11190" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{7E2B4D5F-6C29-4C85-9605-3FFDE1F18044}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -168,7 +168,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -274,7 +274,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -416,7 +416,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -430,13 +430,13 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="3" max="3" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -447,7 +447,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -458,7 +458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -469,7 +469,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
@@ -480,7 +480,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
